--- a/Understanding Kappa.xlsx
+++ b/Understanding Kappa.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="13880" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="13960" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="21">
   <si>
     <t>Student</t>
   </si>
@@ -404,10 +404,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:L15"/>
+  <dimension ref="B2:O15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="179" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="166" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -415,7 +415,7 @@
     <col min="2" max="2" width="12.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -434,23 +434,23 @@
       <c r="G2" t="s">
         <v>5</v>
       </c>
-      <c r="H2" t="s">
+      <c r="K2" t="s">
         <v>14</v>
       </c>
-      <c r="I2" t="s">
+      <c r="L2" t="s">
         <v>15</v>
       </c>
-      <c r="J2" t="s">
+      <c r="M2" t="s">
         <v>16</v>
       </c>
-      <c r="K2" t="s">
+      <c r="N2" t="s">
         <v>17</v>
       </c>
-      <c r="L2" t="s">
+      <c r="O2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B3">
         <v>1</v>
       </c>
@@ -461,140 +461,170 @@
         <v>7</v>
       </c>
       <c r="E3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F3" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+      <c r="H3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I3" t="s">
+        <v>6</v>
+      </c>
+      <c r="K3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B4">
         <v>2</v>
       </c>
       <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" t="s">
         <v>7</v>
       </c>
-      <c r="D4" t="s">
-        <v>6</v>
-      </c>
       <c r="E4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H4">
-        <v>3</v>
-      </c>
-      <c r="I4">
+        <v>9</v>
+      </c>
+      <c r="H4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I4" t="s">
+        <v>6</v>
+      </c>
+      <c r="K4">
+        <v>6</v>
+      </c>
+      <c r="L4">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B5">
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G5" t="s">
-        <v>8</v>
-      </c>
-      <c r="H5">
+        <v>9</v>
+      </c>
+      <c r="H5" t="s">
+        <v>8</v>
+      </c>
+      <c r="I5" t="s">
+        <v>8</v>
+      </c>
+      <c r="K5">
         <v>2</v>
       </c>
-      <c r="I5">
+      <c r="L5">
         <v>2</v>
       </c>
-      <c r="J5">
+      <c r="M5">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B6">
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E6" t="s">
         <v>8</v>
       </c>
       <c r="F6" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="G6" t="s">
         <v>9</v>
       </c>
-      <c r="H6">
+      <c r="H6" t="s">
+        <v>8</v>
+      </c>
+      <c r="I6" t="s">
+        <v>6</v>
+      </c>
+      <c r="K6">
         <v>2</v>
       </c>
-      <c r="I6">
-        <v>1</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-      <c r="K6">
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B7">
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" t="s">
         <v>7</v>
       </c>
-      <c r="E7" t="s">
-        <v>6</v>
-      </c>
       <c r="F7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G7" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="H7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>10</v>
       </c>
       <c r="C8">
         <f>COUNTIF(C$3:C$7,"A")</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D8">
-        <f t="shared" ref="D8:G8" si="0">COUNTIF(D$3:D$7,"A")</f>
-        <v>1</v>
+        <f t="shared" ref="D8:I8" si="0">COUNTIF(D$3:D$7,"A")</f>
+        <v>0</v>
       </c>
       <c r="E8">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F8">
         <f t="shared" si="0"/>
@@ -602,20 +632,28 @@
       </c>
       <c r="G8">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>11</v>
       </c>
       <c r="C9">
         <f>COUNTIF(C$3:C$7,"B")</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9">
-        <f t="shared" ref="D9:G9" si="1">COUNTIF(D$3:D$7,"B")</f>
-        <v>2</v>
+        <f t="shared" ref="D9:I9" si="1">COUNTIF(D$3:D$7,"B")</f>
+        <v>4</v>
       </c>
       <c r="E9">
         <f t="shared" si="1"/>
@@ -627,95 +665,127 @@
       </c>
       <c r="G9">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>12</v>
       </c>
       <c r="C10">
         <f>COUNTIF(C$3:C$7,"C")</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10">
-        <f t="shared" ref="D10:G10" si="2">COUNTIF(D$3:D$7,"C")</f>
-        <v>1</v>
+        <f t="shared" ref="D10:I10" si="2">COUNTIF(D$3:D$7,"C")</f>
+        <v>0</v>
       </c>
       <c r="E10">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F10">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G10">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>13</v>
       </c>
       <c r="C11">
         <f>COUNTIF(C$3:C$7,"D")</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D11">
-        <f t="shared" ref="D11:G11" si="3">COUNTIF(D$3:D$7,"D")</f>
+        <f t="shared" ref="D11:I11" si="3">COUNTIF(D$3:D$7,"D")</f>
         <v>1</v>
       </c>
       <c r="E11">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F11">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G11">
         <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="2:12" ht="32" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:15" ht="32" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C13">
         <f>(C8*C8+C9*C9+C10*C10+C11*C11)/25</f>
-        <v>0.28000000000000003</v>
+        <v>0.68</v>
       </c>
       <c r="D13">
-        <f t="shared" ref="D13:G13" si="4">(D8*D8+D9*D9+D10*D10+D11*D11)/25</f>
-        <v>0.28000000000000003</v>
+        <f t="shared" ref="D13:I13" si="4">(D8*D8+D9*D9+D10*D10+D11*D11)/25</f>
+        <v>0.68</v>
       </c>
       <c r="E13">
         <f t="shared" si="4"/>
-        <v>0.28000000000000003</v>
+        <v>0.68</v>
       </c>
       <c r="F13">
         <f t="shared" si="4"/>
-        <v>0.28000000000000003</v>
+        <v>0.44</v>
       </c>
       <c r="G13">
         <f t="shared" si="4"/>
-        <v>0.28000000000000003</v>
+        <v>1</v>
       </c>
       <c r="H13">
-        <f>SUM(C13:G13)/5</f>
-        <v>0.28000000000000003</v>
-      </c>
-    </row>
-    <row r="15" spans="2:12" ht="32" x14ac:dyDescent="0.2">
+        <f t="shared" si="4"/>
+        <v>0.68</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="4"/>
+        <v>0.52</v>
+      </c>
+      <c r="J13">
+        <f>SUM(C13:I13)/COUNT(C13:I13)</f>
+        <v>0.66857142857142848</v>
+      </c>
+    </row>
+    <row r="15" spans="2:15" ht="32" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C15">
-        <f>(H4/5-H13)/(1-H13)</f>
-        <v>0.44444444444444442</v>
+        <f>(K4/7-J13)/(1-J13)</f>
+        <v>0.56896551724137923</v>
       </c>
     </row>
   </sheetData>

--- a/Understanding Kappa.xlsx
+++ b/Understanding Kappa.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="13960" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="13880" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="24">
   <si>
     <t>Student</t>
   </si>
@@ -87,6 +87,15 @@
   </si>
   <si>
     <t># of shared answers</t>
+  </si>
+  <si>
+    <t>Answer6</t>
+  </si>
+  <si>
+    <t>Answer7</t>
+  </si>
+  <si>
+    <t>This is a visual/tabular representation of our calculations for Cohen's Kappa. This differs from the algorithm deloyed in the code where this assumes each question has 4 answers where the JS algorithm looks at the choosen answers to determine the number of answers to choose from.</t>
   </si>
 </sst>
 </file>
@@ -404,10 +413,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:O15"/>
+  <dimension ref="A1:O15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="166" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+    <sheetView tabSelected="1" zoomScale="110" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -415,7 +424,12 @@
     <col min="2" max="2" width="12.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -434,6 +448,12 @@
       <c r="G2" t="s">
         <v>5</v>
       </c>
+      <c r="H2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" t="s">
+        <v>22</v>
+      </c>
       <c r="K2" t="s">
         <v>14</v>
       </c>
@@ -450,7 +470,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B3">
         <v>1</v>
       </c>
@@ -479,7 +499,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B4">
         <v>2</v>
       </c>
@@ -505,13 +525,13 @@
         <v>6</v>
       </c>
       <c r="K4">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B5">
         <v>3</v>
       </c>
@@ -537,16 +557,16 @@
         <v>8</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="L5">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="M5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6">
         <v>4</v>
       </c>
@@ -572,19 +592,19 @@
         <v>6</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B7">
         <v>5</v>
       </c>
@@ -609,8 +629,20 @@
       <c r="I7" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="K7">
+        <v>2</v>
+      </c>
+      <c r="L7">
+        <v>2</v>
+      </c>
+      <c r="M7">
+        <v>3</v>
+      </c>
+      <c r="N7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>10</v>
       </c>
@@ -643,7 +675,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>11</v>
       </c>
@@ -676,7 +708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>12</v>
       </c>
@@ -709,7 +741,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>13</v>
       </c>
@@ -742,7 +774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
         <v>18</v>
       </c>
@@ -779,13 +811,13 @@
         <v>0.66857142857142848</v>
       </c>
     </row>
-    <row r="15" spans="2:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C15">
         <f>(K4/7-J13)/(1-J13)</f>
-        <v>0.56896551724137923</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
